--- a/2.データ/ETロボコン_分析/ETロボコン_分析・気付き.xlsx
+++ b/2.データ/ETロボコン_分析/ETロボコン_分析・気付き.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ksk\Documents\Doc\2.データ\ETロボコン_分析\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20850" windowHeight="9180" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="試走会1 分析" sheetId="4" r:id="rId1"/>
@@ -19,7 +24,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'試走会1 気づき'!$B$2:$D$13</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="62">
   <si>
     <t>次回に持ち物を事前に1週前の土曜にトートバック等に入れて準備する。</t>
     <phoneticPr fontId="1"/>
@@ -476,12 +481,149 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>[2017/7/15]
+指示ややり取りが非常にやりたかった。</t>
+    <rPh sb="12" eb="14">
+      <t>シジ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[2017/7/15]
+携帯でやり取りできるように横に置く。
+Skypeをつなげておく。</t>
+    <rPh sb="12" eb="14">
+      <t>ケイタイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[2017/7/15]
+車検に落ちた。</t>
+    <rPh sb="12" eb="14">
+      <t>シャケン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[2017/7/15]
+事前チェックを行う。
+予備パーツを持っていく。</t>
+    <rPh sb="12" eb="14">
+      <t>ジゼン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヨビ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[2017/7/15]
+当日まで何をやるか決めていなかった。
+口頭だけで伝わっていなかった。</t>
+    <rPh sb="12" eb="14">
+      <t>トウジツ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>コウトウ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ツタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[2017/7/15]
+チェックリストを作る。
+やることリストが伝わっていなかった。</t>
+    <rPh sb="20" eb="21">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ツタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[2017/7/15]
+発泡スチロールが欲しい</t>
+    <rPh sb="12" eb="14">
+      <t>ハッポウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ホ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[2017/7/15]
+買う =&gt; 700円くらい</t>
+    <rPh sb="12" eb="13">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[2017/7/15]
+試走会2の出欠を取る。</t>
+    <rPh sb="12" eb="14">
+      <t>シソウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シュッケツ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Today</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -577,15 +719,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -884,7 +1023,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -894,9 +1033,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
@@ -907,90 +1046,90 @@
     <col min="7" max="7" width="24.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75">
+    <row r="1" spans="1:7" ht="25.5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>試走会1 分析</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:7">
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="B4" s="3" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="B5" s="3" t="s">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-    </row>
-    <row r="6" spans="1:7" ht="94.5">
-      <c r="B6" s="3" t="s">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:7" ht="150" x14ac:dyDescent="0.4">
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="10"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="B7" s="3" t="s">
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1012,11 +1151,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="3.875" customWidth="1"/>
     <col min="2" max="2" width="7.125" customWidth="1"/>
@@ -1026,7 +1167,7 @@
     <col min="6" max="6" width="42.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75">
+    <row r="1" spans="1:6" ht="25.5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>試走会1 気づき</v>
@@ -1035,210 +1176,286 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:6">
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="27">
-      <c r="B3" s="3">
-        <f t="shared" ref="B3:B13" si="0">ROW(B3)-2</f>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B3" s="2">
+        <f t="shared" ref="B3:C17" si="0">ROW(B3)-2</f>
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="108">
-      <c r="B4" s="3">
+    <row r="4" spans="1:6" ht="150" x14ac:dyDescent="0.4">
+      <c r="B4" s="2">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" ht="40.5">
-      <c r="B5" s="3">
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="B5" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="27">
-      <c r="B6" s="3">
+    <row r="6" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B6" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="39" customHeight="1">
-      <c r="B7" s="3">
+    <row r="7" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" ht="40.5">
-      <c r="B8" s="3">
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="B8" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" ht="54">
-      <c r="B9" s="3">
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" ht="75" x14ac:dyDescent="0.4">
+      <c r="B9" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="54">
-      <c r="B10" s="3">
+    <row r="10" spans="1:6" ht="75" x14ac:dyDescent="0.4">
+      <c r="B10" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="27">
-      <c r="B11" s="3">
+    <row r="11" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B11" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="54">
-      <c r="B12" s="3">
+    <row r="12" spans="1:6" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="B12" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="B13" s="3">
+    <row r="13" spans="1:6" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="B13" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="B14" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="B15" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B16" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B17" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="B2:D13"/>
@@ -1250,12 +1467,6 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>※データ!$C$3:$C$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>D4:D13</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
             <xm:f>※データ!$C$3:$C$5</xm:f>
           </x14:formula1>
           <xm:sqref>D3</xm:sqref>
@@ -1264,7 +1475,13 @@
           <x14:formula1>
             <xm:f>※データ!$B$3:$B$8</xm:f>
           </x14:formula1>
-          <xm:sqref>C3:C13</xm:sqref>
+          <xm:sqref>C3:C17</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>※データ!$C$3:$C$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>D4:D17</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1278,7 +1495,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4.625" customWidth="1"/>
     <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
@@ -1289,81 +1506,81 @@
     <col min="7" max="7" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75">
-      <c r="A1" s="9" t="str">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>試走会2 分析</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="B4" s="3" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="B5" s="3" t="s">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="B6" s="3" t="s">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="B7" s="3" t="s">
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1389,7 +1606,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="3.75" customWidth="1"/>
     <col min="2" max="2" width="5.25" customWidth="1"/>
@@ -1399,45 +1616,45 @@
     <col min="6" max="6" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75">
-      <c r="A1" s="9" t="str">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" s="8" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>試走会2 気づき</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="B3" s="3">
-        <f t="shared" ref="B3:B4" si="0">ROW(B3)-2</f>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B3" s="2">
+        <f t="shared" ref="B3" si="0">ROW(B3)-2</f>
         <v>1</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1481,7 +1698,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="3.625" customWidth="1"/>
     <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
@@ -1492,81 +1709,81 @@
     <col min="7" max="7" width="22.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75">
+    <row r="1" spans="1:7" ht="25.5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>地区大会 分析</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="B4" s="3" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="B5" s="3" t="s">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="B6" s="3" t="s">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="B7" s="3" t="s">
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1592,7 +1809,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="3.875" customWidth="1"/>
     <col min="2" max="2" width="4.5" bestFit="1" customWidth="1"/>
@@ -1602,45 +1819,45 @@
     <col min="6" max="6" width="37.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75">
+    <row r="1" spans="1:6" ht="25.5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>地区大会 気づき</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="B3" s="3">
-        <f t="shared" ref="B3:B4" si="0">ROW(B3)-2</f>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B3" s="2">
+        <f t="shared" ref="B3" si="0">ROW(B3)-2</f>
         <v>1</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1682,9 +1899,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4.25" customWidth="1"/>
     <col min="2" max="2" width="4.75" customWidth="1"/>
@@ -1692,43 +1911,44 @@
     <col min="4" max="4" width="45.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75">
+    <row r="1" spans="1:4" ht="25.5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>要望</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="40.5">
-      <c r="B3" s="3">
+    <row r="3" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="B3" s="2">
         <f>ROW(B3)-2</f>
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18.75">
-      <c r="B4" s="3"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B4" s="2"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1738,57 +1958,57 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="19.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="14.25">
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="2:3" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
-      <c r="B6" s="3" t="s">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="2:3">
-      <c r="B7" s="3" t="s">
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="14.25" customHeight="1">
-      <c r="B8" s="3"/>
+    <row r="8" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
